--- a/experiments/hybrid/train.0.100/2-gram-weights.xlsx
+++ b/experiments/hybrid/train.0.100/2-gram-weights.xlsx
@@ -449,833 +449,833 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'seen')</t>
+          <t>('waste', 'time')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03883202889825407</v>
+        <v>0.04561558901682905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('special', 'effects')</t>
+          <t>('really', 'bad')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0358217940999398</v>
+        <v>0.03100088573959256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('waste', 'time')</t>
+          <t>('pretty', 'much')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03100541842263697</v>
+        <v>0.02701505757307352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('looks', 'like')</t>
+          <t>('bad', 'acting')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02769416014449127</v>
+        <v>0.02657218777679362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('year', 'old')</t>
+          <t>('bad', 'movie')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02618904274533414</v>
+        <v>0.02657218777679362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('look', 'like')</t>
+          <t>('movie', 'bad')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02498494882600843</v>
+        <v>0.02391496899911426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('low', 'budget')</t>
+          <t>('one', 'worst')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02498494882600843</v>
+        <v>0.02347209920283437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('even', 'though')</t>
+          <t>('movie', 'even')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02137266706803131</v>
+        <v>0.01904340124003543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('really', 'bad')</t>
+          <t>('bad', 'guys')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02107164358819988</v>
+        <v>0.01860053144375554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('see', 'movie')</t>
+          <t>('first', 'minutes')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02046959662853703</v>
+        <v>0.01860053144375554</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('much', 'better')</t>
+          <t>('movies', 'ever')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01956652618904274</v>
+        <v>0.01815766164747564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('sci', 'fi')</t>
+          <t>('worst', 'movie')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01896447922937989</v>
+        <v>0.01815766164747564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'movie')</t>
+          <t>('even', 'worse')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01866345574954846</v>
+        <v>0.01815766164747564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'much')</t>
+          <t>('looked', 'like')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01836243226971704</v>
+        <v>0.01771479185119575</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'acting')</t>
+          <t>('end', 'movie')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01806140878988561</v>
+        <v>0.01727192205491586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'movie')</t>
+          <t>('character', 'development')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01806140878988561</v>
+        <v>0.01682905225863596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('high', 'school')</t>
+          <t>('make', 'sense')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0168573148705599</v>
+        <v>0.01638618246235607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('main', 'character')</t>
+          <t>('b', 'movie')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0168573148705599</v>
+        <v>0.01594331266607617</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'ever')</t>
+          <t>('writer', 'director')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01655629139072848</v>
+        <v>0.01594331266607617</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'made')</t>
+          <t>('something', 'like')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01655629139072848</v>
+        <v>0.01550044286979628</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('watching', 'movie')</t>
+          <t>('acting', 'bad')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01655629139072848</v>
+        <v>0.01505757307351639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'bad')</t>
+          <t>('thing', 'movie')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01625526791089705</v>
+        <v>0.01505757307351639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'like')</t>
+          <t>('main', 'characters')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01595424443106562</v>
+        <v>0.01505757307351639</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('one', 'worst')</t>
+          <t>('film', 'ever')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01595424443106562</v>
+        <v>0.01505757307351639</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('watch', 'movie')</t>
+          <t>('film', 'making')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01535219747140277</v>
+        <v>0.01505757307351639</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'would')</t>
+          <t>('good', 'thing')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01535219747140277</v>
+        <v>0.01505757307351639</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('one', 'thing')</t>
+          <t>('make', 'film')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01505117399157134</v>
+        <v>0.01505757307351639</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'film')</t>
+          <t>('felt', 'like')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01384708007224564</v>
+        <v>0.01461470327723649</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('make', 'movie')</t>
+          <t>('horror', 'movies')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01384708007224564</v>
+        <v>0.01461470327723649</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'made')</t>
+          <t>('worst', 'movies')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01384708007224564</v>
+        <v>0.01461470327723649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'good')</t>
+          <t>('movie', 'could')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01324503311258278</v>
+        <v>0.01461470327723649</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'really')</t>
+          <t>('movie', 'movie')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01294400963275135</v>
+        <v>0.0141718334809566</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'even')</t>
+          <t>('two', 'hours')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01294400963275135</v>
+        <v>0.0137289636846767</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('real', 'life')</t>
+          <t>('end', 'film')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01294400963275135</v>
+        <v>0.0137289636846767</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('years', 'ago')</t>
+          <t>('time', 'money')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01294400963275135</v>
+        <v>0.0137289636846767</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('good', 'movie')</t>
+          <t>('one', 'point')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01264298615291993</v>
+        <v>0.0137289636846767</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'guys')</t>
+          <t>('bad', 'film')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01264298615291993</v>
+        <v>0.0137289636846767</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('first', 'minutes')</t>
+          <t>('first', 'movie')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01264298615291993</v>
+        <v>0.01328609388839681</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('film', 'would')</t>
+          <t>('whole', 'thing')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0123419626730885</v>
+        <v>0.01328609388839681</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('movies', 'ever')</t>
+          <t>('anything', 'else')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0123419626730885</v>
+        <v>0.01284322409211692</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'movie')</t>
+          <t>('first', 'place')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0123419626730885</v>
+        <v>0.01284322409211692</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('even', 'worse')</t>
+          <t>('yet', 'another')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0123419626730885</v>
+        <v>0.01240035429583702</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('want', 'see')</t>
+          <t>('piece', 'crap')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0123419626730885</v>
+        <v>0.01240035429583702</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('looked', 'like')</t>
+          <t>('made', 'tv')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01204093919325707</v>
+        <v>0.01240035429583702</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('many', 'people')</t>
+          <t>('camera', 'work')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01204093919325707</v>
+        <v>0.01240035429583702</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'movie')</t>
+          <t>('really', 'really')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01173991571342565</v>
+        <v>0.01240035429583702</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('never', 'seen')</t>
+          <t>('video', 'store')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01173991571342565</v>
+        <v>0.01240035429583702</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('end', 'movie')</t>
+          <t>('film', 'could')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01173991571342565</v>
+        <v>0.01195748449955713</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('good', 'film')</t>
+          <t>('feels', 'like')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01143889223359422</v>
+        <v>0.01195748449955713</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('character', 'development')</t>
+          <t>('whole', 'film')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01143889223359422</v>
+        <v>0.01195748449955713</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('worth', 'watching')</t>
+          <t>('feel', 'like')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01143889223359422</v>
+        <v>0.01195748449955713</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('make', 'sense')</t>
+          <t>('seems', 'like')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01113786875376279</v>
+        <v>0.01195748449955713</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('long', 'time')</t>
+          <t>('like', 'watching')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01113786875376279</v>
+        <v>0.01195748449955713</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('movies', 'like')</t>
+          <t>('would', 'make')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01113786875376279</v>
+        <v>0.01151461470327724</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('writer', 'director')</t>
+          <t>('one', 'two')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01083684527393137</v>
+        <v>0.01151461470327724</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('b', 'movie')</t>
+          <t>('read', 'book')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01083684527393137</v>
+        <v>0.01151461470327724</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('film', 'made')</t>
+          <t>('production', 'values')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01083684527393137</v>
+        <v>0.01151461470327724</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('first', 'time')</t>
+          <t>('seemed', 'like')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01083684527393137</v>
+        <v>0.01151461470327724</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'one')</t>
+          <t>('watching', 'film')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01053582179409994</v>
+        <v>0.01151461470327724</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('something', 'like')</t>
+          <t>('part', 'movie')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01053582179409994</v>
+        <v>0.01107174490699734</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('acting', 'bad')</t>
+          <t>('bad', 'movies')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01023479831426851</v>
+        <v>0.01107174490699734</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('thing', 'movie')</t>
+          <t>('first', 'one')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01023479831426851</v>
+        <v>0.01107174490699734</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('main', 'characters')</t>
+          <t>('absolutely', 'nothing')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01023479831426851</v>
+        <v>0.01107174490699734</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('film', 'ever')</t>
+          <t>('nothing', 'new')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01023479831426851</v>
+        <v>0.01107174490699734</v>
       </c>
     </row>
   </sheetData>
@@ -1319,826 +1319,826 @@
         <v>130</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04684684684684685</v>
+        <v>0.06378802747791953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('even', 'though')</t>
+          <t>('new', 'york')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02882882882882883</v>
+        <v>0.03434739941118744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('first', 'time')</t>
+          <t>('must', 'see')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02738738738738739</v>
+        <v>0.03385672227674191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('real', 'life')</t>
+          <t>('great', 'movie')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.02993130520117762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('new', 'york')</t>
+          <t>('highly', 'recommend')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02522522522522522</v>
+        <v>0.02502453385672228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('must', 'see')</t>
+          <t>('love', 'story')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02486486486486486</v>
+        <v>0.02306182531894014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'seen')</t>
+          <t>('years', 'later')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02414414414414414</v>
+        <v>0.02208047105004907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('year', 'old')</t>
+          <t>('one', 'favorite')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02234234234234234</v>
+        <v>0.02011776251226693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('years', 'ago')</t>
+          <t>('black', 'white')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02234234234234234</v>
+        <v>0.02011776251226693</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('great', 'movie')</t>
+          <t>('great', 'film')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02198198198198198</v>
+        <v>0.02011776251226693</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('special', 'effects')</t>
+          <t>('love', 'movie')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02018018018018018</v>
+        <v>0.01864573110893033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('good', 'movie')</t>
+          <t>('well', 'done')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01981981981981982</v>
+        <v>0.01815505397448479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('see', 'movie')</t>
+          <t>('tv', 'series')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01945945945945946</v>
+        <v>0.01815505397448479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('highly', 'recommend')</t>
+          <t>('great', 'job')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01837837837837838</v>
+        <v>0.01766437684003926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('much', 'better')</t>
+          <t>('tony', 'hawk')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01693693693693694</v>
+        <v>0.01717369970559372</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('love', 'story')</t>
+          <t>('world', 'war')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01693693693693694</v>
+        <v>0.01717369970559372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('really', 'good')</t>
+          <t>('well', 'worth')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01693693693693694</v>
+        <v>0.01717369970559372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('low', 'budget')</t>
+          <t>('good', 'job')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01621621621621622</v>
+        <v>0.01668302257114818</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('years', 'later')</t>
+          <t>('true', 'story')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01621621621621622</v>
+        <v>0.01668302257114818</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('sci', 'fi')</t>
+          <t>('recommend', 'movie')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01585585585585586</v>
+        <v>0.01619234543670265</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('long', 'time')</t>
+          <t>('film', 'festival')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01513513513513513</v>
+        <v>0.01619234543670265</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('one', 'favorite')</t>
+          <t>('first', 'saw')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01477477477477477</v>
+        <v>0.01521099116781158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('black', 'white')</t>
+          <t>('film', 'great')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01477477477477477</v>
+        <v>0.01521099116781158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'made')</t>
+          <t>('young', 'man')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01477477477477477</v>
+        <v>0.01472031403336605</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('see', 'film')</t>
+          <t>('every', 'time')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01477477477477477</v>
+        <v>0.01472031403336605</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('great', 'film')</t>
+          <t>('films', 'like')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01477477477477477</v>
+        <v>0.01422963689892051</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'good')</t>
+          <t>('film', 'really')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01441441441441441</v>
+        <v>0.01422963689892051</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('high', 'school')</t>
+          <t>('movie', 'great')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01405405405405405</v>
+        <v>0.01373895976447497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('film', 'made')</t>
+          <t>('movie', 'seen')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01405405405405405</v>
+        <v>0.01373895976447497</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('love', 'movie')</t>
+          <t>('supporting', 'cast')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01369369369369369</v>
+        <v>0.01324828263002944</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('film', 'also')</t>
+          <t>('watch', 'film')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01369369369369369</v>
+        <v>0.01324828263002944</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('saw', 'movie')</t>
+          <t>('th', 'century')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01324828263002944</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('well', 'done')</t>
+          <t>('fun', 'watch')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01275760549558391</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('tv', 'series')</t>
+          <t>('movie', 'also')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01226692836113837</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('good', 'film')</t>
+          <t>('martial', 'arts')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01297297297297297</v>
+        <v>0.01226692836113837</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('great', 'job')</t>
+          <t>('one', 'greatest')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01297297297297297</v>
+        <v>0.01226692836113837</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('first', 'film')</t>
+          <t>('kung', 'fu')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01297297297297297</v>
+        <v>0.01226692836113837</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('tony', 'hawk')</t>
+          <t>('highly', 'recommended')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01261261261261261</v>
+        <v>0.01226692836113837</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'good')</t>
+          <t>('top', 'notch')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01261261261261261</v>
+        <v>0.01177625122669284</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('world', 'war')</t>
+          <t>('big', 'screen')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01261261261261261</v>
+        <v>0.01177625122669284</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'film')</t>
+          <t>('give', 'movie')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01261261261261261</v>
+        <v>0.01177625122669284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'one')</t>
+          <t>('quite', 'good')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01261261261261261</v>
+        <v>0.01177625122669284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('well', 'worth')</t>
+          <t>('also', 'good')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01261261261261261</v>
+        <v>0.01177625122669284</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('true', 'story')</t>
+          <t>('watched', 'movie')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01225225225225225</v>
+        <v>0.0112855740922473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('many', 'people')</t>
+          <t>('really', 'like')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01225225225225225</v>
+        <v>0.0112855740922473</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('good', 'job')</t>
+          <t>('great', 'acting')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01225225225225225</v>
+        <v>0.0112855740922473</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('never', 'seen')</t>
+          <t>('put', 'together')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01189189189189189</v>
+        <v>0.0112855740922473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('watch', 'movie')</t>
+          <t>('along', 'way')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01189189189189189</v>
+        <v>0.0112855740922473</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('worth', 'watching')</t>
+          <t>('hong', 'kong')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01189189189189189</v>
+        <v>0.0112855740922473</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('recommend', 'movie')</t>
+          <t>('film', 'well')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01189189189189189</v>
+        <v>0.0112855740922473</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('film', 'festival')</t>
+          <t>('seen', 'movie')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01189189189189189</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('would', 'like')</t>
+          <t>('would', 'recommend')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01189189189189189</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('first', 'saw')</t>
+          <t>('film', 'noir')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01117117117117117</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('want', 'see')</t>
+          <t>('based', 'true')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01117117117117117</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('one', 'thing')</t>
+          <t>('pro', 'skater')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01117117117117117</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('film', 'great')</t>
+          <t>('hawk', 'pro')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01117117117117117</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('main', 'character')</t>
+          <t>('saw', 'film')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01117117117117117</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('like', 'movie')</t>
+          <t>('throughout', 'film')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01117117117117117</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('young', 'man')</t>
+          <t>('would', 'never')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01081081081081081</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('film', 'would')</t>
+          <t>('feel', 'good')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01081081081081081</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('every', 'time')</t>
+          <t>('sense', 'humor')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01081081081081081</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('look', 'like')</t>
+          <t>('old', 'man')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01045045045045045</v>
+        <v>0.01079489695780177</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('takes', 'place')</t>
+          <t>('well', 'acted')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01045045045045045</v>
+        <v>0.01030421982335623</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('films', 'like')</t>
+          <t>('horror', 'films')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01045045045045045</v>
+        <v>0.01030421982335623</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/hybrid/train.0.100/2-gram-weights.xlsx
+++ b/experiments/hybrid/train.0.100/2-gram-weights.xlsx
@@ -456,46 +456,46 @@
         <v>103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04561558901682905</v>
+        <v>0.04449244060475162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('really', 'bad')</t>
+          <t>('look', 'like')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03100088573959256</v>
+        <v>0.03758099352051836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'much')</t>
+          <t>('one', 'worst')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02701505757307352</v>
+        <v>0.03412526997840173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'acting')</t>
+          <t>('really', 'bad')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02657218777679362</v>
+        <v>0.03196544276457883</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02657218777679362</v>
+        <v>0.02894168466522678</v>
       </c>
     </row>
     <row r="7">
@@ -518,114 +518,114 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02391496899911426</v>
+        <v>0.02894168466522678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('one', 'worst')</t>
+          <t>('horror', 'movie')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02347209920283437</v>
+        <v>0.02807775377969762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'even')</t>
+          <t>('worst', 'movie')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01904340124003543</v>
+        <v>0.02332613390928726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'guys')</t>
+          <t>('bad', 'acting')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01860053144375554</v>
+        <v>0.0224622030237581</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('first', 'minutes')</t>
+          <t>('good', 'thing')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01860053144375554</v>
+        <v>0.01987041036717063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('movies', 'ever')</t>
+          <t>('movie', 'really')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01815766164747564</v>
+        <v>0.01987041036717063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'movie')</t>
+          <t>('whole', 'movie')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01815766164747564</v>
+        <v>0.01857451403887689</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('even', 'worse')</t>
+          <t>('make', 'movie')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01815766164747564</v>
+        <v>0.01727861771058315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('looked', 'like')</t>
+          <t>('whole', 'thing')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01771479185119575</v>
+        <v>0.01684665226781857</v>
       </c>
     </row>
     <row r="16">
@@ -638,644 +638,644 @@
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01727192205491586</v>
+        <v>0.01684665226781857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('character', 'development')</t>
+          <t>('looked', 'like')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01682905225863596</v>
+        <v>0.01684665226781857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('make', 'sense')</t>
+          <t>('bad', 'guy')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01638618246235607</v>
+        <v>0.01555075593952484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('b', 'movie')</t>
+          <t>('worst', 'movies')</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01594331266607617</v>
+        <v>0.01555075593952484</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('writer', 'director')</t>
+          <t>('make', 'sense')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01594331266607617</v>
+        <v>0.01511879049676026</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('something', 'like')</t>
+          <t>('one', 'scene')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01550044286979628</v>
+        <v>0.01468682505399568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('acting', 'bad')</t>
+          <t>('seems', 'like')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01505757307351639</v>
+        <v>0.0142548596112311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('thing', 'movie')</t>
+          <t>('film', 'ever')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01505757307351639</v>
+        <v>0.0142548596112311</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('main', 'characters')</t>
+          <t>('action', 'scenes')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01505757307351639</v>
+        <v>0.01382289416846652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('film', 'ever')</t>
+          <t>('movie', 'could')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01505757307351639</v>
+        <v>0.01382289416846652</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('film', 'making')</t>
+          <t>('bad', 'film')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01505757307351639</v>
+        <v>0.01339092872570194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('good', 'thing')</t>
+          <t>('first', 'minutes')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01505757307351639</v>
+        <v>0.01339092872570194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('make', 'film')</t>
+          <t>('worst', 'film')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01505757307351639</v>
+        <v>0.01339092872570194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('felt', 'like')</t>
+          <t>('two', 'hours')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01461470327723649</v>
+        <v>0.01339092872570194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'movies')</t>
+          <t>('half', 'hour')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01461470327723649</v>
+        <v>0.01339092872570194</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'movies')</t>
+          <t>('entire', 'movie')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01461470327723649</v>
+        <v>0.01339092872570194</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'could')</t>
+          <t>('sex', 'scenes')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01461470327723649</v>
+        <v>0.01295896328293736</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'movie')</t>
+          <t>('something', 'like')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0141718334809566</v>
+        <v>0.01295896328293736</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('two', 'hours')</t>
+          <t>('entire', 'film')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0137289636846767</v>
+        <v>0.01295896328293736</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('end', 'film')</t>
+          <t>('felt', 'like')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0137289636846767</v>
+        <v>0.01295896328293736</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('time', 'money')</t>
+          <t>('story', 'line')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0137289636846767</v>
+        <v>0.01252699784017279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('one', 'point')</t>
+          <t>('movie', 'nothing')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0137289636846767</v>
+        <v>0.01252699784017279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'film')</t>
+          <t>('b', 'movie')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0137289636846767</v>
+        <v>0.01252699784017279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('first', 'movie')</t>
+          <t>('first', 'one')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01328609388839681</v>
+        <v>0.01252699784017279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'thing')</t>
+          <t>('bad', 'movies')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01328609388839681</v>
+        <v>0.01209503239740821</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('anything', 'else')</t>
+          <t>('scooby', 'doo')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01284322409211692</v>
+        <v>0.01209503239740821</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('first', 'place')</t>
+          <t>('one', 'point')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01284322409211692</v>
+        <v>0.01209503239740821</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('yet', 'another')</t>
+          <t>('film', 'even')</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>28</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01240035429583702</v>
+        <v>0.01209503239740821</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('piece', 'crap')</t>
+          <t>('even', 'worse')</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01240035429583702</v>
+        <v>0.01209503239740821</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('made', 'tv')</t>
+          <t>('old', 'man')</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>28</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01240035429583702</v>
+        <v>0.01209503239740821</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('camera', 'work')</t>
+          <t>('say', 'movie')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01240035429583702</v>
+        <v>0.01166306695464363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('really', 'really')</t>
+          <t>('made', 'movie')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01240035429583702</v>
+        <v>0.01166306695464363</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('video', 'store')</t>
+          <t>('anything', 'else')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01240035429583702</v>
+        <v>0.01166306695464363</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('film', 'could')</t>
+          <t>('like', 'watching')</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01195748449955713</v>
+        <v>0.01166306695464363</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('feels', 'like')</t>
+          <t>('horror', 'movies')</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>27</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01195748449955713</v>
+        <v>0.01166306695464363</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'film')</t>
+          <t>('read', 'book')</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>27</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01195748449955713</v>
+        <v>0.01166306695464363</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('feel', 'like')</t>
+          <t>('first', 'place')</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>27</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01195748449955713</v>
+        <v>0.01166306695464363</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('seems', 'like')</t>
+          <t>('bad', 'good')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01195748449955713</v>
+        <v>0.01123110151187905</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('like', 'watching')</t>
+          <t>('really', 'really')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01195748449955713</v>
+        <v>0.01123110151187905</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('would', 'make')</t>
+          <t>('first', 'film')</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>26</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01151461470327724</v>
+        <v>0.01123110151187905</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('one', 'two')</t>
+          <t>('fast', 'forward')</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>26</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01151461470327724</v>
+        <v>0.01123110151187905</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('read', 'book')</t>
+          <t>('watching', 'film')</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>26</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01151461470327724</v>
+        <v>0.01123110151187905</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('production', 'values')</t>
+          <t>('part', 'movie')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01151461470327724</v>
+        <v>0.01079913606911447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('seemed', 'like')</t>
+          <t>('get', 'wrong')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01151461470327724</v>
+        <v>0.01079913606911447</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('watching', 'film')</t>
+          <t>('five', 'minutes')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01151461470327724</v>
+        <v>0.01079913606911447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('part', 'movie')</t>
+          <t>('one', 'movie')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01107174490699734</v>
+        <v>0.01036717062634989</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'movies')</t>
+          <t>('bad', 'bad')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01107174490699734</v>
+        <v>0.01036717062634989</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('first', 'one')</t>
+          <t>('waste', 'money')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01107174490699734</v>
+        <v>0.01036717062634989</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('absolutely', 'nothing')</t>
+          <t>('feels', 'like')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01107174490699734</v>
+        <v>0.01036717062634989</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('nothing', 'new')</t>
+          <t>('video', 'store')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01107174490699734</v>
+        <v>0.01036717062634989</v>
       </c>
     </row>
   </sheetData>
@@ -1316,62 +1316,62 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06378802747791953</v>
+        <v>0.07586533902323377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('new', 'york')</t>
+          <t>('great', 'movie')</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>70</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03434739941118744</v>
+        <v>0.03319108582266477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('must', 'see')</t>
+          <t>('highly', 'recommend')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03385672227674191</v>
+        <v>0.02418207681365576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('great', 'movie')</t>
+          <t>('must', 'see')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02993130520117762</v>
+        <v>0.02370791844476055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('highly', 'recommend')</t>
+          <t>('years', 'later')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02502453385672228</v>
+        <v>0.02370791844476055</v>
       </c>
     </row>
     <row r="7">
@@ -1381,764 +1381,764 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02306182531894014</v>
+        <v>0.02275960170697013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('years', 'later')</t>
+          <t>('well', 'done')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02208047105004907</v>
+        <v>0.02181128496917971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('one', 'favorite')</t>
+          <t>('black', 'white')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02011776251226693</v>
+        <v>0.02181128496917971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('black', 'white')</t>
+          <t>('well', 'worth')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02011776251226693</v>
+        <v>0.02038880986249407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('great', 'film')</t>
+          <t>('supporting', 'cast')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02011776251226693</v>
+        <v>0.01991465149359886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('love', 'movie')</t>
+          <t>('th', 'century')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01864573110893033</v>
+        <v>0.01944049312470365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('well', 'done')</t>
+          <t>('movie', 'great')</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01815505397448479</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('tv', 'series')</t>
+          <t>('young', 'man')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01815505397448479</v>
+        <v>0.0170697012802276</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('great', 'job')</t>
+          <t>('highly', 'recommended')</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01766437684003926</v>
+        <v>0.0170697012802276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('tony', 'hawk')</t>
+          <t>('one', 'time')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01717369970559372</v>
+        <v>0.01612138454243717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('world', 'war')</t>
+          <t>('every', 'time')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01717369970559372</v>
+        <v>0.01612138454243717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('well', 'worth')</t>
+          <t>('kung', 'fu')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01717369970559372</v>
+        <v>0.01612138454243717</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('good', 'job')</t>
+          <t>('world', 'war')</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01668302257114818</v>
+        <v>0.01612138454243717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('true', 'story')</t>
+          <t>('great', 'film')</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>34</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01668302257114818</v>
+        <v>0.01612138454243717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('recommend', 'movie')</t>
+          <t>('saw', 'movie')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01619234543670265</v>
+        <v>0.01517306780464675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('film', 'festival')</t>
+          <t>('many', 'times')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01619234543670265</v>
+        <v>0.01469890943575154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('first', 'saw')</t>
+          <t>('recommend', 'film')</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01521099116781158</v>
+        <v>0.01469890943575154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('film', 'great')</t>
+          <t>('love', 'movie')</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01521099116781158</v>
+        <v>0.01469890943575154</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('young', 'man')</t>
+          <t>('science', 'fiction')</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01472031403336605</v>
+        <v>0.01422475106685633</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('every', 'time')</t>
+          <t>('much', 'like')</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01472031403336605</v>
+        <v>0.01422475106685633</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('films', 'like')</t>
+          <t>('well', 'written')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01422963689892051</v>
+        <v>0.01422475106685633</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('film', 'really')</t>
+          <t>('saw', 'film')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01422963689892051</v>
+        <v>0.01422475106685633</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'great')</t>
+          <t>('one', 'favorite')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01373895976447497</v>
+        <v>0.01422475106685633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'seen')</t>
+          <t>('first', 'saw')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01373895976447497</v>
+        <v>0.01422475106685633</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('supporting', 'cast')</t>
+          <t>('one', 'day')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01324828263002944</v>
+        <v>0.01422475106685633</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('watch', 'film')</t>
+          <t>('one', 'another')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01324828263002944</v>
+        <v>0.01375059269796112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('th', 'century')</t>
+          <t>('recommend', 'movie')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01324828263002944</v>
+        <v>0.01327643432906591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('fun', 'watch')</t>
+          <t>('go', 'see')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01275760549558391</v>
+        <v>0.01327643432906591</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'also')</t>
+          <t>('like', 'film')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01226692836113837</v>
+        <v>0.01327643432906591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('martial', 'arts')</t>
+          <t>('even', 'better')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01226692836113837</v>
+        <v>0.01327643432906591</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('one', 'greatest')</t>
+          <t>('end', 'film')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01226692836113837</v>
+        <v>0.01327643432906591</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('kung', 'fu')</t>
+          <t>('true', 'story')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01226692836113837</v>
+        <v>0.0128022759601707</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('highly', 'recommended')</t>
+          <t>('well', 'made')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01226692836113837</v>
+        <v>0.0128022759601707</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('top', 'notch')</t>
+          <t>('great', 'job')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01177625122669284</v>
+        <v>0.0128022759601707</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('big', 'screen')</t>
+          <t>('well', 'known')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01177625122669284</v>
+        <v>0.01232811759127549</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('give', 'movie')</t>
+          <t>('years', 'old')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01177625122669284</v>
+        <v>0.01232811759127549</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('quite', 'good')</t>
+          <t>('production', 'values')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01177625122669284</v>
+        <v>0.01232811759127549</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('also', 'good')</t>
+          <t>('best', 'friend')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01177625122669284</v>
+        <v>0.01185395922238027</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('watched', 'movie')</t>
+          <t>('feel', 'good')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0112855740922473</v>
+        <v>0.01185395922238027</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('really', 'like')</t>
+          <t>('rest', 'cast')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0112855740922473</v>
+        <v>0.01185395922238027</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('great', 'acting')</t>
+          <t>('many', 'films')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0112855740922473</v>
+        <v>0.01185395922238027</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('put', 'together')</t>
+          <t>('movie', 'well')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0112855740922473</v>
+        <v>0.01185395922238027</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('along', 'way')</t>
+          <t>('film', 'festival')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0112855740922473</v>
+        <v>0.01185395922238027</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('hong', 'kong')</t>
+          <t>('many', 'years')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0112855740922473</v>
+        <v>0.01137980085348506</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('film', 'well')</t>
+          <t>('seen', 'film')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0112855740922473</v>
+        <v>0.01137980085348506</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('seen', 'movie')</t>
+          <t>('top', 'notch')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01137980085348506</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('would', 'recommend')</t>
+          <t>('martial', 'arts')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01137980085348506</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('film', 'noir')</t>
+          <t>('film', 'first')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('based', 'true')</t>
+          <t>('people', 'like')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('pro', 'skater')</t>
+          <t>('live', 'action')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('hawk', 'pro')</t>
+          <t>('quite', 'good')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('saw', 'film')</t>
+          <t>('along', 'way')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('throughout', 'film')</t>
+          <t>('film', 'well')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('would', 'never')</t>
+          <t>('small', 'town')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('feel', 'good')</t>
+          <t>('film', 'great')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('sense', 'humor')</t>
+          <t>('loved', 'movie')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('old', 'man')</t>
+          <t>('point', 'view')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01079489695780177</v>
+        <v>0.01090564248458985</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('well', 'acted')</t>
+          <t>('throughout', 'film')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01030421982335623</v>
+        <v>0.01043148411569464</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'films')</t>
+          <t>('fun', 'watch')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01030421982335623</v>
+        <v>0.01043148411569464</v>
       </c>
     </row>
   </sheetData>
